--- a/Questionario Piloto.xlsx
+++ b/Questionario Piloto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/45ca0ff386fbb648/Documents/Codigos/Iniciação Cientifica/Site Questionario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="333" documentId="8_{6C87E92D-A85E-4707-A4F5-34336A5786FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1382631-856B-486E-AA69-74B91EED4EED}"/>
+  <xr:revisionPtr revIDLastSave="343" documentId="8_{6C87E92D-A85E-4707-A4F5-34336A5786FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6ACE40B2-55AB-4A98-8A4C-59F1F90AD241}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="190">
   <si>
     <t xml:space="preserve">Olá,
 Você está sendo convidado(a) a participar voluntariamente da pesquisa intitulada "Aversão ao risco e aversão à perda em investimentos: Proposição de uma medida de suitability", conduzida pelo Programa de Pós-Graduação em Administração do CEPEAD/UFMG. O objetivo desta pesquisa é desenvolver uma ferramenta de percepção de risco que busca compreender como os investidores avaliam o risco de produtos financeiros.
@@ -200,9 +200,6 @@
     <t>Mais de 30 salários mínimos (mais de R$ 39.600,00)</t>
   </si>
   <si>
-    <t>Qual é o maior nível de educação que você concluiu?</t>
-  </si>
-  <si>
     <t>Ensino Fundamental</t>
   </si>
   <si>
@@ -401,9 +398,6 @@
     <t>Outros</t>
   </si>
   <si>
-    <t>Quando penso em investimentos, a segurança é mais importante para mim do que ganhos altos. (R)</t>
-  </si>
-  <si>
     <t>Imagine que você está diante de uma oportunidade de investimento. Qual das seguintes afirmações se aproxima mais da sua atitude em relação ao risco envolvido ao tomar uma decisão sobre esse investimento?</t>
   </si>
   <si>
@@ -482,9 +476,6 @@
     <t>P8</t>
   </si>
   <si>
-    <t>I4</t>
-  </si>
-  <si>
     <t>NP1</t>
   </si>
   <si>
@@ -651,6 +642,18 @@
   </si>
   <si>
     <t>Objeto de Strings</t>
+  </si>
+  <si>
+    <t>Qual é o maior nível de educação que você concluiu ou esta em?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando penso em investimentos, acredito que a segurança é mais importante para mim do que ganhos altos. </t>
+  </si>
+  <si>
+    <t>Acredito que quando uma pessoa investe, ela deve pensar principalmente nos possíveis ganhos</t>
+  </si>
+  <si>
+    <t>I6</t>
   </si>
 </sst>
 </file>
@@ -1085,6 +1088,21 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1096,21 +1114,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4407,7 +4410,7 @@
   <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4419,10 +4422,10 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>3</v>
@@ -4494,7 +4497,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>17</v>
@@ -4520,7 +4523,7 @@
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -4579,7 +4582,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>25</v>
@@ -4605,7 +4608,7 @@
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>27</v>
@@ -4614,7 +4617,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>29</v>
@@ -4638,16 +4641,16 @@
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>14</v>
@@ -4680,7 +4683,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>32</v>
@@ -4710,22 +4713,22 @@
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>14</v>
@@ -4743,10 +4746,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>14</v>
@@ -4792,7 +4795,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -4811,7 +4814,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4822,7 +4825,7 @@
     <col min="5" max="5" width="25.7109375" style="48" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" style="55"/>
     <col min="7" max="7" width="12.5703125" style="48"/>
-    <col min="8" max="8" width="8.42578125" style="55" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="55" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" style="48"/>
     <col min="10" max="10" width="12.5703125" style="63"/>
     <col min="11" max="11" width="15.28515625" style="48" customWidth="1"/>
@@ -4831,10 +4834,10 @@
   <sheetData>
     <row r="1" spans="1:12" ht="12.75">
       <c r="A1" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>3</v>
@@ -4864,34 +4867,34 @@
         <v>11</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="12.75">
       <c r="A2" s="11"/>
       <c r="B2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" s="43" t="s">
+      <c r="F2" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="G2" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="H2" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="I2" s="43" t="s">
         <v>51</v>
-      </c>
-      <c r="I2" s="43" t="s">
-        <v>52</v>
       </c>
       <c r="J2" s="58" t="s">
         <v>14</v>
@@ -4905,37 +4908,37 @@
     </row>
     <row r="3" spans="1:12" ht="12.75">
       <c r="A3" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="44" t="s">
+      <c r="F3" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="G3" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="H3" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="I3" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="J3" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="59" t="s">
+      <c r="K3" s="65" t="s">
         <v>60</v>
-      </c>
-      <c r="K3" s="65" t="s">
-        <v>61</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>14</v>
@@ -4943,16 +4946,16 @@
     </row>
     <row r="4" spans="1:12" ht="12.75">
       <c r="A4" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>63</v>
-      </c>
       <c r="D4" s="25" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E4" s="43" t="s">
         <v>14</v>
@@ -4985,31 +4988,31 @@
         <v>15</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="43" t="s">
+      <c r="F5" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="G5" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="H5" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="I5" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="J5" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="58" t="s">
+      <c r="K5" s="43" t="s">
         <v>70</v>
-      </c>
-      <c r="K5" s="43" t="s">
-        <v>71</v>
       </c>
       <c r="L5" s="11" t="s">
         <v>14</v>
@@ -5017,37 +5020,37 @@
     </row>
     <row r="6" spans="1:12" ht="12.75">
       <c r="A6" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E6" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="G6" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="H6" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="I6" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="J6" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="58" t="s">
+      <c r="K6" s="43" t="s">
         <v>70</v>
-      </c>
-      <c r="K6" s="43" t="s">
-        <v>71</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>14</v>
@@ -5055,16 +5058,16 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="B7" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F7" s="52" t="s">
         <v>14</v>
@@ -5090,28 +5093,28 @@
     </row>
     <row r="8" spans="1:12" ht="12.75">
       <c r="A8" s="23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F8" s="51" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G8" s="45" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H8" s="51" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I8" s="45" t="s">
         <v>14</v>
@@ -5119,7 +5122,7 @@
       <c r="J8" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="66" t="s">
+      <c r="K8" s="45" t="s">
         <v>14</v>
       </c>
       <c r="L8" s="14" t="s">
@@ -5128,37 +5131,37 @@
     </row>
     <row r="9" spans="1:12" ht="12.75">
       <c r="A9" s="23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E9" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="G9" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="H9" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="53" t="s">
+      <c r="I9" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="J9" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="K9" s="65" t="s">
         <v>70</v>
-      </c>
-      <c r="K9" s="65" t="s">
-        <v>71</v>
       </c>
       <c r="L9" s="13" t="s">
         <v>14</v>
@@ -5166,74 +5169,72 @@
     </row>
     <row r="10" spans="1:12" ht="12.75">
       <c r="A10" s="23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10" s="65" t="s">
-        <v>71</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="65"/>
       <c r="L10" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="12.75">
       <c r="A11" s="23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="E11" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="45" t="s">
+      <c r="E11" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="46" t="s">
         <v>14</v>
       </c>
       <c r="L11" s="12" t="s">
@@ -5242,31 +5243,31 @@
     </row>
     <row r="12" spans="1:12" ht="12.75">
       <c r="A12" s="23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F12" s="53" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H12" s="53" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="I12" s="46" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="J12" s="61" t="s">
         <v>14</v>
@@ -5280,31 +5281,31 @@
     </row>
     <row r="13" spans="1:12" ht="12.75">
       <c r="A13" s="23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F13" s="53" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H13" s="53" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I13" s="46" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="J13" s="61" t="s">
         <v>14</v>
@@ -5318,37 +5319,37 @@
     </row>
     <row r="14" spans="1:12" ht="12.75">
       <c r="A14" s="23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="F14" s="53" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="H14" s="53" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="I14" s="46" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="J14" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="46" t="s">
-        <v>14</v>
+        <v>69</v>
+      </c>
+      <c r="K14" s="65" t="s">
+        <v>70</v>
       </c>
       <c r="L14" s="15" t="s">
         <v>14</v>
@@ -5356,34 +5357,34 @@
     </row>
     <row r="15" spans="1:12" ht="31.5" customHeight="1">
       <c r="A15" s="23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="E15" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="54" t="s">
+      <c r="G15" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="H15" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="H15" s="54" t="s">
+      <c r="I15" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="I15" s="47" t="s">
+      <c r="J15" s="62" t="s">
         <v>103</v>
-      </c>
-      <c r="J15" s="62" t="s">
-        <v>104</v>
       </c>
       <c r="K15" s="67" t="s">
         <v>14</v>
@@ -5394,28 +5395,28 @@
     </row>
     <row r="16" spans="1:12" ht="12.75">
       <c r="A16" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E16" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="51" t="s">
+      <c r="G16" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="45" t="s">
+      <c r="H16" s="51" t="s">
         <v>82</v>
-      </c>
-      <c r="H16" s="51" t="s">
-        <v>83</v>
       </c>
       <c r="I16" s="45" t="s">
         <v>14</v>
@@ -5432,37 +5433,37 @@
     </row>
     <row r="17" spans="1:12" ht="12.75">
       <c r="A17" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>105</v>
+        <v>187</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E17" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="G17" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="46" t="s">
+      <c r="H17" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="H17" s="53" t="s">
+      <c r="I17" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="46" t="s">
+      <c r="J17" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="J17" s="61" t="s">
+      <c r="K17" s="65" t="s">
         <v>70</v>
-      </c>
-      <c r="K17" s="65" t="s">
-        <v>71</v>
       </c>
       <c r="L17" s="13" t="s">
         <v>14</v>
@@ -5470,28 +5471,28 @@
     </row>
     <row r="18" spans="1:12" ht="12.75">
       <c r="A18" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E18" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="51" t="s">
+      <c r="G18" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="45" t="s">
+      <c r="H18" s="51" t="s">
         <v>76</v>
-      </c>
-      <c r="H18" s="51" t="s">
-        <v>77</v>
       </c>
       <c r="I18" s="45" t="s">
         <v>14</v>
@@ -5508,25 +5509,25 @@
     </row>
     <row r="19" spans="1:12" ht="12.75">
       <c r="A19" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E19" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="G19" s="46" t="s">
         <v>86</v>
-      </c>
-      <c r="G19" s="46" t="s">
-        <v>87</v>
       </c>
       <c r="H19" s="53" t="s">
         <v>14</v>
@@ -5546,31 +5547,31 @@
     </row>
     <row r="20" spans="1:12" ht="12.75">
       <c r="A20" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E20" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="G20" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="46" t="s">
+      <c r="H20" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="H20" s="53" t="s">
+      <c r="I20" s="46" t="s">
         <v>92</v>
-      </c>
-      <c r="I20" s="46" t="s">
-        <v>93</v>
       </c>
       <c r="J20" s="61"/>
       <c r="K20" s="46" t="s">
@@ -5582,28 +5583,28 @@
     </row>
     <row r="21" spans="1:12" ht="12.75">
       <c r="A21" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E21" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="G21" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="H21" s="53" t="s">
         <v>97</v>
-      </c>
-      <c r="H21" s="53" t="s">
-        <v>98</v>
       </c>
       <c r="I21" s="46" t="s">
         <v>14</v>
@@ -5620,37 +5621,37 @@
     </row>
     <row r="22" spans="1:12" ht="12.75">
       <c r="A22" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B22" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>142</v>
-      </c>
       <c r="E22" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="53" t="s">
+      <c r="G22" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="46" t="s">
+      <c r="H22" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="53" t="s">
+      <c r="I22" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="46" t="s">
+      <c r="J22" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="J22" s="61" t="s">
+      <c r="K22" s="65" t="s">
         <v>70</v>
-      </c>
-      <c r="K22" s="65" t="s">
-        <v>71</v>
       </c>
       <c r="L22" s="13" t="s">
         <v>14</v>
@@ -5685,19 +5686,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="68" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
+      <c r="A1" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
       <c r="G1" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>3</v>
@@ -5716,168 +5717,168 @@
       <c r="Q1" s="34"/>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="69" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
+      <c r="A3" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="32" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A6" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
+      <c r="A6" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
       <c r="E6" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="M6" s="75" t="s">
-        <v>162</v>
-      </c>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="76" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="77"/>
-      <c r="AB6" s="77"/>
-      <c r="AC6" s="77"/>
+        <v>149</v>
+      </c>
+      <c r="M6" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z6" s="72"/>
+      <c r="AA6" s="72"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="72"/>
     </row>
     <row r="7" spans="1:29">
-      <c r="A7" s="72" t="s">
-        <v>112</v>
+      <c r="A7" s="69" t="s">
+        <v>110</v>
       </c>
       <c r="B7" s="73"/>
       <c r="C7" s="73"/>
       <c r="D7" s="73"/>
       <c r="E7" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="75"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="75"/>
-      <c r="V7" s="75"/>
-      <c r="W7" s="75"/>
-      <c r="X7" s="75"/>
-      <c r="Y7" s="77"/>
-      <c r="Z7" s="77"/>
-      <c r="AA7" s="77"/>
-      <c r="AB7" s="77"/>
-      <c r="AC7" s="77"/>
+        <v>150</v>
+      </c>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="72"/>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="72" t="s">
-        <v>140</v>
+      <c r="A8" s="69" t="s">
+        <v>137</v>
       </c>
       <c r="B8" s="73"/>
       <c r="C8" s="73"/>
       <c r="D8" s="73"/>
       <c r="E8" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="75"/>
-      <c r="S8" s="75"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="75"/>
-      <c r="V8" s="75"/>
-      <c r="W8" s="75"/>
-      <c r="X8" s="75"/>
-      <c r="Y8" s="77"/>
-      <c r="Z8" s="77"/>
-      <c r="AA8" s="77"/>
-      <c r="AB8" s="77"/>
-      <c r="AC8" s="77"/>
+        <v>151</v>
+      </c>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="72" t="s">
-        <v>155</v>
+      <c r="A9" s="69" t="s">
+        <v>152</v>
       </c>
       <c r="B9" s="73"/>
       <c r="C9" s="73"/>
       <c r="D9" s="73"/>
       <c r="E9" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="75"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="75"/>
-      <c r="V9" s="75"/>
-      <c r="W9" s="75"/>
-      <c r="X9" s="75"/>
-      <c r="Y9" s="77"/>
-      <c r="Z9" s="77"/>
-      <c r="AA9" s="77"/>
-      <c r="AB9" s="77"/>
-      <c r="AC9" s="77"/>
+        <v>153</v>
+      </c>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="72"/>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="72" t="s">
-        <v>157</v>
-      </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
+      <c r="A10" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
       <c r="E10" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="75"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="75"/>
-      <c r="W10" s="75"/>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="77"/>
-      <c r="Z10" s="77"/>
-      <c r="AA10" s="77"/>
-      <c r="AB10" s="77"/>
-      <c r="AC10" s="77"/>
+        <v>155</v>
+      </c>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="70"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="72"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="72"/>
     </row>
     <row r="11" spans="1:29">
       <c r="A11" s="32"/>
@@ -5905,10 +5906,10 @@
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="32" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
@@ -5933,10 +5934,10 @@
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="36" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -5944,59 +5945,59 @@
         <v>3</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D16" s="16"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A20" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="B18" s="32" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A20" s="76" t="s">
-        <v>167</v>
-      </c>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="76"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="76"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="76"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="32"/>
@@ -6004,13 +6005,13 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="32" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B25" s="40">
         <v>1</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6018,63 +6019,63 @@
         <v>13</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="32" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="32" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="35" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="32" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="72" t="s">
-        <v>179</v>
-      </c>
-      <c r="B34" s="72"/>
+      <c r="A34" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" s="69"/>
       <c r="C34" s="32" t="s">
         <v>5</v>
       </c>
@@ -6085,42 +6086,47 @@
         <v>7</v>
       </c>
       <c r="F34" s="32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35" s="74"/>
+      <c r="C35" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="D35" s="32"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="69" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="78" t="s">
-        <v>181</v>
-      </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="D35" s="32"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="72" t="s">
-        <v>183</v>
       </c>
       <c r="B36" s="73"/>
       <c r="C36" s="32" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="74"/>
-      <c r="B37" s="74"/>
+      <c r="A37" s="68"/>
+      <c r="B37" s="68"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="74"/>
-      <c r="B38" s="74"/>
+      <c r="A38" s="68"/>
+      <c r="B38" s="68"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="74"/>
-      <c r="B39" s="74"/>
+      <c r="A39" s="68"/>
+      <c r="B39" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="M6:X10"/>
@@ -6132,11 +6138,6 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Questionario Piloto.xlsx
+++ b/Questionario Piloto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/45ca0ff386fbb648/Documents/Codigos/Iniciação Cientifica/Site Questionario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="343" documentId="8_{6C87E92D-A85E-4707-A4F5-34336A5786FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6ACE40B2-55AB-4A98-8A4C-59F1F90AD241}"/>
+  <xr:revisionPtr revIDLastSave="349" documentId="8_{6C87E92D-A85E-4707-A4F5-34336A5786FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A7DC322-0D34-4509-9956-796CB2F359C9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="192">
   <si>
     <t xml:space="preserve">Olá,
 Você está sendo convidado(a) a participar voluntariamente da pesquisa intitulada "Aversão ao risco e aversão à perda em investimentos: Proposição de uma medida de suitability", conduzida pelo Programa de Pós-Graduação em Administração do CEPEAD/UFMG. O objetivo desta pesquisa é desenvolver uma ferramenta de percepção de risco que busca compreender como os investidores avaliam o risco de produtos financeiros.
@@ -654,6 +654,12 @@
   </si>
   <si>
     <t>I6</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>Às vezes, investimentos que são tidos como 'completamente seguros' podem render menos do que o aumento dos preços ao longo do tempo, o que chamamos de inflação. Isso significa que, embora você não perca dinheiro diretamente, seu dinheiro compra menos coisas. Pensando nos seus objetivos financeiros, qual destas afirmações faz mais sentido para você?</t>
   </si>
 </sst>
 </file>
@@ -1088,21 +1094,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1114,6 +1105,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4410,7 +4416,7 @@
   <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4464,7 +4470,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>14</v>
@@ -4532,7 +4538,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>14</v>
@@ -4617,7 +4623,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>29</v>
@@ -4650,7 +4656,7 @@
         <v>108</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>14</v>
@@ -4749,7 +4755,7 @@
         <v>42</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>14</v>
@@ -4775,6 +4781,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4814,7 +4821,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -5211,7 +5218,7 @@
         <v>125</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>118</v>
@@ -5686,14 +5693,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
       <c r="G1" s="4" t="s">
         <v>106</v>
       </c>
@@ -5717,11 +5724,11 @@
       <c r="Q1" s="34"/>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="35" t="s">
@@ -5737,39 +5744,39 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
       <c r="E6" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="M6" s="70" t="s">
+      <c r="M6" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="70"/>
-      <c r="Y6" s="71" t="s">
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="Z6" s="72"/>
-      <c r="AA6" s="72"/>
-      <c r="AB6" s="72"/>
-      <c r="AC6" s="72"/>
+      <c r="Z6" s="77"/>
+      <c r="AA6" s="77"/>
+      <c r="AB6" s="77"/>
+      <c r="AC6" s="77"/>
     </row>
     <row r="7" spans="1:29">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="72" t="s">
         <v>110</v>
       </c>
       <c r="B7" s="73"/>
@@ -5778,26 +5785,26 @@
       <c r="E7" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="70"/>
-      <c r="V7" s="70"/>
-      <c r="W7" s="70"/>
-      <c r="X7" s="70"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="72"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="75"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="75"/>
+      <c r="V7" s="75"/>
+      <c r="W7" s="75"/>
+      <c r="X7" s="75"/>
+      <c r="Y7" s="77"/>
+      <c r="Z7" s="77"/>
+      <c r="AA7" s="77"/>
+      <c r="AB7" s="77"/>
+      <c r="AC7" s="77"/>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="72" t="s">
         <v>137</v>
       </c>
       <c r="B8" s="73"/>
@@ -5806,26 +5813,26 @@
       <c r="E8" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="70"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="70"/>
-      <c r="V8" s="70"/>
-      <c r="W8" s="70"/>
-      <c r="X8" s="70"/>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="72"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="75"/>
+      <c r="W8" s="75"/>
+      <c r="X8" s="75"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="77"/>
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="77"/>
+      <c r="AC8" s="77"/>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="72" t="s">
         <v>152</v>
       </c>
       <c r="B9" s="73"/>
@@ -5834,51 +5841,51 @@
       <c r="E9" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="70"/>
-      <c r="Y9" s="72"/>
-      <c r="Z9" s="72"/>
-      <c r="AA9" s="72"/>
-      <c r="AB9" s="72"/>
-      <c r="AC9" s="72"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="75"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="75"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="77"/>
+      <c r="AA9" s="77"/>
+      <c r="AB9" s="77"/>
+      <c r="AC9" s="77"/>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="72" t="s">
         <v>154</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
       <c r="E10" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="70"/>
-      <c r="S10" s="70"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="70"/>
-      <c r="V10" s="70"/>
-      <c r="W10" s="70"/>
-      <c r="X10" s="70"/>
-      <c r="Y10" s="72"/>
-      <c r="Z10" s="72"/>
-      <c r="AA10" s="72"/>
-      <c r="AB10" s="72"/>
-      <c r="AC10" s="72"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="77"/>
+      <c r="AA10" s="77"/>
+      <c r="AB10" s="77"/>
+      <c r="AC10" s="77"/>
     </row>
     <row r="11" spans="1:29">
       <c r="A11" s="32"/>
@@ -5958,46 +5965,46 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="76" t="s">
         <v>164</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="71"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="71"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="71"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="32"/>
@@ -6072,10 +6079,10 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="69" t="s">
+      <c r="A34" s="72" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="69"/>
+      <c r="B34" s="72"/>
       <c r="C34" s="32" t="s">
         <v>5</v>
       </c>
@@ -6090,17 +6097,17 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="74" t="s">
+      <c r="A35" s="78" t="s">
         <v>178</v>
       </c>
-      <c r="B35" s="74"/>
+      <c r="B35" s="78"/>
       <c r="C35" s="32" t="s">
         <v>179</v>
       </c>
       <c r="D35" s="32"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="69" t="s">
+      <c r="A36" s="72" t="s">
         <v>180</v>
       </c>
       <c r="B36" s="73"/>
@@ -6109,24 +6116,19 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="68"/>
-      <c r="B37" s="68"/>
+      <c r="A37" s="74"/>
+      <c r="B37" s="74"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="68"/>
-      <c r="B38" s="68"/>
+      <c r="A38" s="74"/>
+      <c r="B38" s="74"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="68"/>
-      <c r="B39" s="68"/>
+      <c r="A39" s="74"/>
+      <c r="B39" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="M6:X10"/>
@@ -6138,6 +6140,11 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
